--- a/pred_ohlcv/54_21/2020-01-15 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-11529.4997</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-540732.1888</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-547568.3705</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-547567.3731</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-548260.2515749402</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-548230.2053749402</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-547283.7652749402</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-546605.8552749401</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-546561.2394749401</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-548626.4781749401</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-575646.9305749401</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-575646.9305749401</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-558860.8796732702</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-556457.8796732702</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-559078.8631732701</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-556728.8631732701</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-555339.1013732702</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-11529.4997</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-540732.1888</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-548260.2515749402</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-548230.2053749402</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-548220.2053749402</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-547161.6752749402</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-547283.7652749402</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-546605.8552749401</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-552755.0541749401</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-552720.0541749401</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-552709.3028749401</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-552769.49287494</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-552769.49287494</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-553762.60507494</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-553762.60507494</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-554592.13687494</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-554672.13687494</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-554721.86247494</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-557210.6892749401</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-557210.6892749401</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-554746.4372749401</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-564747.1674749401</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-573870.9305749401</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-575646.9305749401</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-575646.9305749401</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-554744.10897327</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-557041.6295732701</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-553458.6249732701</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-555338.6249732701</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-557023.6249732701</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-558860.8796732702</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-556457.8796732702</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-559078.8631732701</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-556728.8631732701</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-555339.1013732702</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
